--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/rsources-book-en/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80085B5-E20B-5F47-81A6-B3343C8E1CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A62C6-8208-3149-AF94-F0E230F6D664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>title</t>
   </si>
@@ -322,6 +322,30 @@
   </si>
   <si>
     <t>resource</t>
+  </si>
+  <si>
+    <t>Cartography with R. Create reproducible maps with R</t>
+  </si>
+  <si>
+    <t>https://rcarto.github.io/cartography_with_r/</t>
+  </si>
+  <si>
+    <t>Timothée Giraud</t>
+  </si>
+  <si>
+    <t>Cloud-Optimized Geospatial Formats Guide</t>
+  </si>
+  <si>
+    <t>https://guide.cloudnativegeo.org/</t>
+  </si>
+  <si>
+    <t>R Spatial Cookbook</t>
+  </si>
+  <si>
+    <t>https://pmassicotte.github.io/r-spatial-cookbook/</t>
+  </si>
+  <si>
+    <t>Philippe Massicotte</t>
   </si>
 </sst>
 </file>
@@ -677,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,6 +1162,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A62C6-8208-3149-AF94-F0E230F6D664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2FF83-4170-A842-83C8-B924B324847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>title</t>
   </si>
@@ -346,19 +346,32 @@
   </si>
   <si>
     <t>Philippe Massicotte</t>
+  </si>
+  <si>
+    <t>List of all projection images</t>
+  </si>
+  <si>
+    <t>https://proj.org/en/latest/operations/projections/all_images.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,11 +395,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -701,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,6 +1218,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2FF83-4170-A842-83C8-B924B324847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602304F7-E54A-4F4E-B991-874BA0243613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>title</t>
   </si>
@@ -352,6 +352,27 @@
   </si>
   <si>
     <t>https://proj.org/en/latest/operations/projections/all_images.html</t>
+  </si>
+  <si>
+    <t>Visualizing Information and Spatial Analysis with ggplot2 Extensions</t>
+  </si>
+  <si>
+    <t>https://aditya-dahiya.github.io/visage/</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>Aditya Dahiya</t>
+  </si>
+  <si>
+    <t>Geographic Information Systems and Science</t>
+  </si>
+  <si>
+    <t>https://andrewmaclachlan.github.io/CASA0005repo/index.html</t>
+  </si>
+  <si>
+    <t>Andy MacLachlan, Adam Dennett and Claire Dooley</t>
   </si>
 </sst>
 </file>
@@ -715,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,6 +1253,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602304F7-E54A-4F4E-B991-874BA0243613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568AADA7-E051-C745-96EB-39AC3C03EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>title</t>
   </si>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,6 +1281,20 @@
         <v>107</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_geocomp.xlsx
+++ b/tables/books_geocomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568AADA7-E051-C745-96EB-39AC3C03EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261C676-B54F-144E-97E0-0C9BB0DE4F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{7037AAC1-E376-2240-B714-2C626327E5DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>title</t>
   </si>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5C5B3-2E8C-E14B-9899-2EF56FF1425F}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,58 +1115,58 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1174,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -1199,99 +1199,85 @@
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
